--- a/_resource/excel/1000-框架-配置列表.xlsx
+++ b/_resource/excel/1000-框架-配置列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>#config</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>./config/pay.xml</t>
+  </si>
+  <si>
+    <t>新玩家配置表</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>./config/player.xml</t>
   </si>
   <si>
     <t>进入游戏配置表</t>
@@ -325,6 +334,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +371,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -358,28 +426,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,35 +449,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,33 +470,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,6 +530,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,175 +584,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,21 +760,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -780,26 +774,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,153 +812,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,10 +1446,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1934,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="9" customFormat="1" spans="1:5">
+    <row r="30" s="8" customFormat="1" spans="1:5">
       <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" s="9" customFormat="1" spans="1:5">
@@ -1965,6 +1974,23 @@
         <v>1</v>
       </c>
       <c r="E31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="9" customFormat="1" spans="1:5">
+      <c r="A32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
         <v>0</v>
       </c>
     </row>

--- a/_resource/excel/1000-框架-配置列表.xlsx
+++ b/_resource/excel/1000-框架-配置列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>#config</t>
   </si>
@@ -142,6 +142,15 @@
     <t>./setting/robot.xml</t>
   </si>
   <si>
+    <t>转发配置表</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>./config/route.xml</t>
+  </si>
+  <si>
     <t>渠道配置表</t>
   </si>
   <si>
@@ -221,6 +230,15 @@
   </si>
   <si>
     <t>./config/player.xml</t>
+  </si>
+  <si>
+    <t>时间配置表</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>./config/time.xml</t>
   </si>
   <si>
     <t>进入游戏配置表</t>
@@ -311,8 +329,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -334,15 +352,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +413,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -365,125 +497,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -530,19 +548,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,163 +710,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,13 +757,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,21 +777,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,9 +798,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,177 +854,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1446,10 +1464,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1705,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" spans="1:5">
+    <row r="16" s="8" customFormat="1" spans="1:5">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" s="9" customFormat="1" spans="1:5">
@@ -1756,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:5">
+    <row r="19" s="9" customFormat="1" spans="1:5">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:5">
@@ -1960,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="9" customFormat="1" spans="1:5">
+    <row r="31" s="8" customFormat="1" spans="1:5">
       <c r="A31" s="9" t="s">
         <v>89</v>
       </c>
@@ -1974,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="9" customFormat="1" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:5">
       <c r="A32" s="9" t="s">
         <v>92</v>
       </c>
@@ -1991,6 +2009,40 @@
         <v>1</v>
       </c>
       <c r="E32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" s="9" customFormat="1" spans="1:5">
+      <c r="A33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:5">
+      <c r="A34" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
         <v>0</v>
       </c>
     </row>

--- a/_resource/excel/1000-框架-配置列表.xlsx
+++ b/_resource/excel/1000-框架-配置列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="2" r:id="rId1"/>
@@ -17,309 +17,675 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="223">
+  <si>
+    <t>*dark_config</t>
+  </si>
   <si>
     <t>#config</t>
   </si>
   <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>服务器变量id</t>
+  </si>
+  <si>
+    <t>配置文件名</t>
+  </si>
+  <si>
+    <t>是否可以重新加载</t>
+  </si>
+  <si>
+    <t>是否需要清空数据</t>
+  </si>
+  <si>
     <t>描述说明</t>
   </si>
   <si>
-    <t>服务器变量id</t>
-  </si>
-  <si>
-    <t>配置文件名</t>
-  </si>
-  <si>
-    <t>是否可以重新加载</t>
-  </si>
-  <si>
-    <t>是否需要清空数据</t>
+    <t>Id(string)</t>
+  </si>
+  <si>
+    <t>Name(string)</t>
+  </si>
+  <si>
+    <t>FileName(string)</t>
+  </si>
+  <si>
+    <t>Reload(int)</t>
+  </si>
+  <si>
+    <t>ClearData(int)</t>
   </si>
   <si>
     <t>Description(string)</t>
   </si>
   <si>
-    <t>Id(string)</t>
-  </si>
-  <si>
-    <t>FileName(string)</t>
-  </si>
-  <si>
-    <t>Reload(int)</t>
-  </si>
-  <si>
-    <t>ClearData(int)</t>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>./setting/{}_{}_redis.xml</t>
   </si>
   <si>
     <t>redis数据库配置表</t>
   </si>
   <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>./setting/{}_{}_redis.xml</t>
+    <t>mongo</t>
+  </si>
+  <si>
+    <t>./setting/{}_{}_mongo.xml</t>
   </si>
   <si>
     <t>mongo数据库配置表</t>
   </si>
   <si>
-    <t>mongo</t>
-  </si>
-  <si>
-    <t>./setting/{}_{}_mongo.xml</t>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>./setting/{}_{}_mysql.xml</t>
   </si>
   <si>
     <t>mysql数据库配置表</t>
   </si>
   <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>./setting/{}_{}_mysql.xml</t>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>./setting/{}_{}_ip.xml</t>
   </si>
   <si>
     <t>ip地址配置表</t>
   </si>
   <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>./setting/{}_{}_ip.xml</t>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>./setting/{}_{}_zone.xml</t>
   </si>
   <si>
     <t>游戏分区配置表</t>
   </si>
   <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>./setting/{}_{}_zone.xml</t>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>./setting/bus.xml</t>
   </si>
   <si>
     <t>bus连接关系配置表</t>
   </si>
   <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>./setting/bus.xml</t>
+    <t>http</t>
+  </si>
+  <si>
+    <t>httpserver</t>
+  </si>
+  <si>
+    <t>./setting/httpserver.xml</t>
   </si>
   <si>
     <t>httpserver配置表</t>
   </si>
   <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>./setting/httpserver.xml</t>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>tcpserver</t>
+  </si>
+  <si>
+    <t>./setting/tcpserver.xml</t>
   </si>
   <si>
     <t>tcpserver配置表</t>
   </si>
   <si>
-    <t>tcp</t>
-  </si>
-  <si>
-    <t>./setting/tcpserver.xml</t>
+    <t>datashard</t>
+  </si>
+  <si>
+    <t>./setting/datashard.xml</t>
   </si>
   <si>
     <t>玩家数据库保存配置</t>
   </si>
   <si>
-    <t>datashard</t>
-  </si>
-  <si>
-    <t>./setting/datashard.xml</t>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>./setting/robot.xml</t>
   </si>
   <si>
     <t>机器人配置表</t>
   </si>
   <si>
-    <t>robot</t>
-  </si>
-  <si>
-    <t>./setting/robot.xml</t>
+    <t>route</t>
+  </si>
+  <si>
+    <t>./config/route.xml</t>
   </si>
   <si>
     <t>转发配置表</t>
   </si>
   <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>./config/route.xml</t>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>./config/channel.xml</t>
   </si>
   <si>
     <t>渠道配置表</t>
   </si>
   <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>./config/channel.xml</t>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>./config/filter.xml</t>
   </si>
   <si>
     <t>屏蔽字符配置表</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>./config/filter.xml</t>
+    <t>class</t>
+  </si>
+  <si>
+    <t>./config/class.xml</t>
   </si>
   <si>
     <t>属性定义配置表</t>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>./config/class.xml</t>
+    <t>element</t>
+  </si>
+  <si>
+    <t>./config/element.xml</t>
   </si>
   <si>
     <t>元素模板配置表</t>
   </si>
   <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>./config/element.xml</t>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>./config/relation.xml</t>
   </si>
   <si>
     <t>关系配置表</t>
   </si>
   <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>./config/relation.xml</t>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>./config/rank.xml</t>
   </si>
   <si>
     <t>排行榜配置表</t>
   </si>
   <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>./config/rank.xml</t>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>./config/compound.xml</t>
   </si>
   <si>
     <t>属性合成配置表</t>
   </si>
   <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>./config/compound.xml</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>./config/pay.xml</t>
   </si>
   <si>
     <t>充值配置表</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>./config/pay.xml</t>
+    <t>player</t>
+  </si>
+  <si>
+    <t>./config/player.xml</t>
   </si>
   <si>
     <t>新玩家配置表</t>
   </si>
   <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>./config/player.xml</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>./config/time.xml</t>
   </si>
   <si>
     <t>时间配置表</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>./config/time.xml</t>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>./config/enter.xml</t>
   </si>
   <si>
     <t>进入游戏配置表</t>
   </si>
   <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>./config/enter.xml</t>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>./config/leave.xml</t>
   </si>
   <si>
     <t>离开游戏配置表</t>
   </si>
   <si>
-    <t>leave</t>
-  </si>
-  <si>
-    <t>./config/leave.xml</t>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>./config/reset.xml</t>
   </si>
   <si>
     <t>属性重置配置表</t>
   </si>
   <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t>./config/reset.xml</t>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>./config/signin.xml</t>
   </si>
   <si>
     <t>签到配置表</t>
   </si>
   <si>
-    <t>signin</t>
-  </si>
-  <si>
-    <t>./config/signin.xml</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>./config/store.xml</t>
   </si>
   <si>
     <t>商城配置表</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>./config/store.xml</t>
+    <t>task</t>
+  </si>
+  <si>
+    <t>./config/task.xml</t>
   </si>
   <si>
     <t>任务配置表</t>
   </si>
   <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>./config/task.xml</t>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>./config/achieve.xml</t>
   </si>
   <si>
     <t>成就配置表</t>
   </si>
   <si>
-    <t>achieve</t>
-  </si>
-  <si>
-    <t>./config/achieve.xml</t>
+    <t>option</t>
+  </si>
+  <si>
+    <t>./config/option.xml</t>
   </si>
   <si>
     <t>常量配置表</t>
   </si>
   <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>./config/option.xml</t>
+    <t>dropgroup</t>
+  </si>
+  <si>
+    <t>./config/dropgroup.xml</t>
   </si>
   <si>
     <t>掉落配置表</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>./config/drop.xml</t>
+    <t>dropdata</t>
+  </si>
+  <si>
+    <t>./config/dropdata.xml</t>
+  </si>
+  <si>
+    <t>掉落数据表</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>./config/match.xml</t>
+  </si>
+  <si>
+    <t>匹配配置表</t>
+  </si>
+  <si>
+    <t>heroment</t>
+  </si>
+  <si>
+    <t>./config/heroment.xml</t>
+  </si>
+  <si>
+    <t>itemment</t>
+  </si>
+  <si>
+    <t>./config/itemment.xml</t>
+  </si>
+  <si>
+    <t>itemtype</t>
+  </si>
+  <si>
+    <t>./config/itemtype.xml</t>
+  </si>
+  <si>
+    <t>道具类型配置表</t>
+  </si>
+  <si>
+    <t>equiptype</t>
+  </si>
+  <si>
+    <t>./config/equiptype.xml</t>
+  </si>
+  <si>
+    <t>装备类型配置表</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>itemcommon</t>
+  </si>
+  <si>
+    <t>./config/itemcommon.xml</t>
+  </si>
+  <si>
+    <t>道具配置表</t>
+  </si>
+  <si>
+    <t>itemgift</t>
+  </si>
+  <si>
+    <t>./config/itemgift.xml</t>
+  </si>
+  <si>
+    <t>itemequip</t>
+  </si>
+  <si>
+    <t>./config/itemequip.xml</t>
+  </si>
+  <si>
+    <t>itemdrug</t>
+  </si>
+  <si>
+    <t>./config/itemdrug.xml</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>weightpool</t>
+  </si>
+  <si>
+    <t>./config/weightpool.xml</t>
+  </si>
+  <si>
+    <t>权重配置表</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>herorace</t>
+  </si>
+  <si>
+    <t>./config/herorace.xml</t>
+  </si>
+  <si>
+    <t>英雄种族配置表</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>herocharacter</t>
+  </si>
+  <si>
+    <t>./config/herocharacter.xml</t>
+  </si>
+  <si>
+    <t>英雄性格配置表</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>herobackground</t>
+  </si>
+  <si>
+    <t>./config/herobackground.xml</t>
+  </si>
+  <si>
+    <t>英雄背景配置表</t>
+  </si>
+  <si>
+    <t>heroattribute</t>
+  </si>
+  <si>
+    <t>./config/heroattribute.xml</t>
+  </si>
+  <si>
+    <t>英雄属性配置表</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>heroprofession</t>
+  </si>
+  <si>
+    <t>./config/heroprofession.xml</t>
+  </si>
+  <si>
+    <t>英雄职业配置表</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>heroskill</t>
+  </si>
+  <si>
+    <t>./config/heroskill.xml</t>
+  </si>
+  <si>
+    <t>英雄技能配置表</t>
+  </si>
+  <si>
+    <t>generate</t>
+  </si>
+  <si>
+    <t>herogenerate</t>
+  </si>
+  <si>
+    <t>./config/herogenerate.xml</t>
+  </si>
+  <si>
+    <t>英雄生成配置表</t>
+  </si>
+  <si>
+    <t>pinchface</t>
+  </si>
+  <si>
+    <t>heropinchface</t>
+  </si>
+  <si>
+    <t>./config/heropinchface.xml</t>
+  </si>
+  <si>
+    <t>英雄捏脸配置表</t>
+  </si>
+  <si>
+    <t>herolevel</t>
+  </si>
+  <si>
+    <t>./config/herolevel.xml</t>
+  </si>
+  <si>
+    <t>英雄等级配置表</t>
+  </si>
+  <si>
+    <t>recruit</t>
+  </si>
+  <si>
+    <t>recruitrefresh</t>
+  </si>
+  <si>
+    <t>./config/recruitrefresh.xml</t>
+  </si>
+  <si>
+    <t>英雄招募刷新配置表</t>
+  </si>
+  <si>
+    <t>divisor</t>
+  </si>
+  <si>
+    <t>recruitdivisor</t>
+  </si>
+  <si>
+    <t>./config/recruitdivisor.xml</t>
+  </si>
+  <si>
+    <t>英雄招募偏好配置表</t>
+  </si>
+  <si>
+    <t>traincamp</t>
+  </si>
+  <si>
+    <t>./config/traincamp.xml</t>
+  </si>
+  <si>
+    <t>英雄训练所配置表</t>
+  </si>
+  <si>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>./config/clinic.xml</t>
+  </si>
+  <si>
+    <t>英雄医疗所配置表</t>
+  </si>
+  <si>
+    <t>npc</t>
+  </si>
+  <si>
+    <t>npcgenerate</t>
+  </si>
+  <si>
+    <t>./config/npcgenerate.xml</t>
+  </si>
+  <si>
+    <t>npc生成配置表</t>
+  </si>
+  <si>
+    <t>npcskill</t>
+  </si>
+  <si>
+    <t>./config/npcskill.xml</t>
+  </si>
+  <si>
+    <t>npc技能组配置表</t>
+  </si>
+  <si>
+    <t>buildlevel</t>
+  </si>
+  <si>
+    <t>./config/buildlevel.xml</t>
+  </si>
+  <si>
+    <t>建筑等级配置表</t>
+  </si>
+  <si>
+    <t>buildskin</t>
+  </si>
+  <si>
+    <t>./config/buildskin.xml</t>
+  </si>
+  <si>
+    <t>建筑皮肤配置表</t>
+  </si>
+  <si>
+    <t>herotransfer</t>
+  </si>
+  <si>
+    <t>./config/herotransfer.xml</t>
+  </si>
+  <si>
+    <t>转职配置表</t>
+  </si>
+  <si>
+    <t>herochancel</t>
+  </si>
+  <si>
+    <t>herochance</t>
+  </si>
+  <si>
+    <t>./config/herochancel.xml</t>
+  </si>
+  <si>
+    <t>英雄圣坛配置表</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>./config/record.xml</t>
+  </si>
+  <si>
+    <t>记录配置表</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>./config/explore.xml</t>
+  </si>
+  <si>
+    <t>探索配置表</t>
+  </si>
+  <si>
+    <t>fighter</t>
+  </si>
+  <si>
+    <t>./config/fighter.xml</t>
+  </si>
+  <si>
+    <t>战斗配置表</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>./config/chapter.xml</t>
+  </si>
+  <si>
+    <t>章节配置表</t>
+  </si>
+  <si>
+    <t>eventgroup</t>
+  </si>
+  <si>
+    <t>./config/eventgroup.xml</t>
+  </si>
+  <si>
+    <t>事件组配置</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>./config/event.xml</t>
+  </si>
+  <si>
+    <t>事件配置</t>
   </si>
 </sst>
 </file>
@@ -327,10 +693,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -352,34 +718,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,28 +730,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,14 +742,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,10 +769,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,25 +784,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,15 +800,70 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,31 +914,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,151 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,17 +1123,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,41 +1146,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,15 +1165,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -854,157 +1179,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,6 +1399,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1464,87 +1833,104 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="11" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="10"/>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:5">
+    <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:5">
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -1552,16 +1938,19 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:5">
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1569,16 +1958,19 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:5">
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1586,16 +1978,19 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:5">
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1603,16 +1998,19 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:5">
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1620,16 +2018,19 @@
       <c r="E9" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:5">
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1637,16 +2038,19 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:5">
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -1654,16 +2058,19 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="1:5">
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -1671,16 +2078,19 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="6" customFormat="1" spans="1:5">
+      <c r="F12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -1688,16 +2098,19 @@
       <c r="E13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" s="7" customFormat="1" spans="1:5">
+      <c r="F13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -1705,16 +2118,19 @@
       <c r="E14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" s="8" customFormat="1" spans="1:5">
+      <c r="F14" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:6">
       <c r="A15" s="9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -1722,16 +2138,19 @@
       <c r="E15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" s="8" customFormat="1" spans="1:5">
+      <c r="F15" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:6">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -1739,16 +2158,19 @@
       <c r="E16" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" s="9" customFormat="1" spans="1:5">
+      <c r="F16" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" s="9" customFormat="1" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -1756,16 +2178,19 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="1:5">
+      <c r="F17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1" spans="1:6">
       <c r="A18" s="9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -1773,16 +2198,19 @@
       <c r="E18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" s="9" customFormat="1" spans="1:5">
+      <c r="F18" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" s="9" customFormat="1" spans="1:6">
       <c r="A19" s="9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -1790,16 +2218,19 @@
       <c r="E19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" s="8" customFormat="1" spans="1:5">
+      <c r="F19" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:6">
       <c r="A20" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -1807,16 +2238,19 @@
       <c r="E20" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="1" spans="1:5">
+      <c r="F20" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:6">
       <c r="A21" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -1824,16 +2258,19 @@
       <c r="E21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" s="8" customFormat="1" spans="1:5">
+      <c r="F21" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:6">
       <c r="A22" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -1841,16 +2278,19 @@
       <c r="E22" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" s="8" customFormat="1" spans="1:5">
+      <c r="F22" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:6">
       <c r="A23" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -1858,16 +2298,19 @@
       <c r="E23" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" s="8" customFormat="1" spans="1:5">
+      <c r="F23" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:6">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -1875,16 +2318,19 @@
       <c r="E24" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" s="8" customFormat="1" spans="1:5">
+      <c r="F24" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:6">
       <c r="A25" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
@@ -1892,16 +2338,19 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" s="8" customFormat="1" spans="1:5">
+      <c r="F25" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="1:6">
       <c r="A26" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -1909,16 +2358,19 @@
       <c r="E26" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" s="8" customFormat="1" spans="1:5">
+      <c r="F26" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="1:6">
       <c r="A27" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
@@ -1926,16 +2378,19 @@
       <c r="E27" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" s="8" customFormat="1" spans="1:5">
+      <c r="F27" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="1:6">
       <c r="A28" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -1943,16 +2398,19 @@
       <c r="E28" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" s="8" customFormat="1" spans="1:5">
+      <c r="F28" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="1:6">
       <c r="A29" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -1960,16 +2418,19 @@
       <c r="E29" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" s="8" customFormat="1" spans="1:5">
+      <c r="F29" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="1:6">
       <c r="A30" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
@@ -1977,16 +2438,19 @@
       <c r="E30" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" s="8" customFormat="1" spans="1:5">
+      <c r="F30" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="1:6">
       <c r="A31" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D31" s="9">
         <v>1</v>
@@ -1994,16 +2458,19 @@
       <c r="E31" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" s="8" customFormat="1" spans="1:5">
+      <c r="F31" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="1:6">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
@@ -2011,16 +2478,19 @@
       <c r="E32" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" s="9" customFormat="1" spans="1:5">
+      <c r="F32" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" s="9" customFormat="1" spans="1:6">
       <c r="A33" s="9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D33" s="9">
         <v>1</v>
@@ -2028,22 +2498,748 @@
       <c r="E33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" s="9" customFormat="1" spans="1:5">
+      <c r="F33" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:6">
       <c r="A34" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D34" s="9">
         <v>1</v>
       </c>
       <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:6">
+      <c r="A36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
         <v>0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" s="10" customFormat="1" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:6">
+      <c r="A38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" spans="1:6">
+      <c r="A39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" s="10" customFormat="1" spans="1:6">
+      <c r="A40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="1" spans="1:6">
+      <c r="A41" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" spans="1:6">
+      <c r="A42" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" s="10" customFormat="1" spans="1:6">
+      <c r="A43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" s="10" customFormat="1" spans="1:6">
+      <c r="A44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" s="10" customFormat="1" spans="1:6">
+      <c r="A45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" s="10" customFormat="1" spans="1:6">
+      <c r="A46" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" s="10" customFormat="1" spans="1:6">
+      <c r="A47" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" s="10" customFormat="1" spans="1:6">
+      <c r="A48" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" s="10" customFormat="1" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" s="10" customFormat="1" spans="1:6">
+      <c r="A50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="1" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" s="10" customFormat="1" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="1" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="1" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" s="10" customFormat="1" spans="1:6">
+      <c r="A55" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="1" spans="1:6">
+      <c r="A56" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" s="10" customFormat="1" spans="1:6">
+      <c r="A57" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" s="10" customFormat="1" spans="1:6">
+      <c r="A58" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="1" spans="1:6">
+      <c r="A59" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" s="10" customFormat="1" spans="1:6">
+      <c r="A60" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" s="10" customFormat="1" spans="1:6">
+      <c r="A61" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" s="10" customFormat="1" spans="1:6">
+      <c r="A62" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" s="10" customFormat="1" spans="1:6">
+      <c r="A63" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" s="10" customFormat="1" spans="1:6">
+      <c r="A64" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="1" spans="1:6">
+      <c r="A65" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10">
+        <v>1</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" s="10" customFormat="1" spans="1:6">
+      <c r="A66" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" s="10" customFormat="1" spans="1:6">
+      <c r="A67" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" s="10" customFormat="1" spans="1:6">
+      <c r="A68" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="1" spans="1:6">
+      <c r="A69" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" s="10" customFormat="1" spans="1:6">
+      <c r="A70" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
